--- a/cw3/Amica_GPW_Kowarik.xlsx
+++ b/cw3/Amica_GPW_Kowarik.xlsx
@@ -858,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,6 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1212,7 +1213,7 @@
   <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="N242" sqref="N242"/>
+      <selection activeCell="K241" sqref="K241:M241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6762,6 +6763,9 @@
       <c r="G241" s="6">
         <v>0</v>
       </c>
+      <c r="K241" s="9"/>
+      <c r="L241" s="9"/>
+      <c r="M241" s="9"/>
       <c r="N241" s="8"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
